--- a/biology/Biochimie/Juxtacrine/Juxtacrine.xlsx
+++ b/biology/Biochimie/Juxtacrine/Juxtacrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En biologie cellulaire, la communication juxtacrine est un type de signalisation cellulaire entre cellules adjacentes impliquant des oligosaccharides, des lipides ou des protéines de la membrane cellulaire, et affectant la cellule émettrice ou certaines des cellules adjacentes.
 Contrairement à d'autres modes de signalisation cellulaire, paracrine ou endocrine, la signalisation juxtacrine requiert l'établissement d'un contact physique entre les cellules impliquées dans cette communication. Elle a été observée dans le mode d'action du facteur de croissance, des cytokines et des chimiokines.
